--- a/德福词汇/徐立华词汇.xlsx
+++ b/德福词汇/徐立华词汇.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F014B515-12EC-48F1-A2AA-18616F20A987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4713C63-9134-4255-BD20-176AD9EC823A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="不常用可分前缀" sheetId="2" r:id="rId2"/>
     <sheet name="ab" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="186">
   <si>
     <t>V.DE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,6 +829,94 @@
   </si>
   <si>
     <t>扣除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接近，挨边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作认真和迫切性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anbauen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sich etwas aneignen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anerkennen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anfallen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anfordern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anfragen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angeben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angleichen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angreifen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植，扩建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握，学会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承认，认可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击，袭击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐渐接近，使适应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1767,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18951F08-4EB9-43BC-9E64-42228F71C1C3}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2000,4 +2089,112 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6F304F-FBA0-4E8D-87CD-45711FB43F03}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="3"/>
+    <col min="4" max="4" width="7.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/德福词汇/徐立华词汇.xlsx
+++ b/德福词汇/徐立华词汇.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4713C63-9134-4255-BD20-176AD9EC823A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7B0579-E278-DE4F-A33A-D7EAB82B3490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12720" activeTab="2" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="不常用可分前缀" sheetId="2" r:id="rId2"/>
     <sheet name="ab" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="an" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -680,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ablenken von D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ablösen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,6 +913,10 @@
   </si>
   <si>
     <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ablenken von D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +924,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1328,16 +1328,16 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.81640625" style="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,25 +1563,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461BB255-0CEC-4BFE-9933-374164F165F9}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
@@ -1597,13 +1597,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1627,13 +1627,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1649,13 +1649,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>71</v>
       </c>
@@ -1663,12 +1663,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -1676,13 +1676,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -1746,13 +1746,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
         <v>93</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>97</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>98</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>99</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>100</v>
       </c>
@@ -1806,13 +1806,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
         <v>107</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
         <v>109</v>
       </c>
@@ -1856,21 +1856,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18951F08-4EB9-43BC-9E64-42228F71C1C3}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="3"/>
-    <col min="5" max="5" width="11.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3"/>
+    <col min="5" max="5" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>113</v>
       </c>
@@ -1887,69 +1887,69 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>125</v>
       </c>
@@ -1957,31 +1957,31 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1989,100 +1989,100 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2095,102 +2095,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6F304F-FBA0-4E8D-87CD-45711FB43F03}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="3"/>
-    <col min="4" max="4" width="7.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3"/>
+    <col min="4" max="4" width="7.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/德福词汇/徐立华词汇.xlsx
+++ b/德福词汇/徐立华词汇.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7B0579-E278-DE4F-A33A-D7EAB82B3490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F37E94-0F8B-48DD-B317-B94094D0739E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12720" activeTab="2" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -808,10 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>协调，一直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驱除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,6 +913,10 @@
   </si>
   <si>
     <t>ablenken von D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调，一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +924,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1328,16 +1328,16 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1567,21 +1567,21 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="24.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
@@ -1597,13 +1597,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1627,13 +1627,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1649,13 +1649,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>71</v>
       </c>
@@ -1663,12 +1663,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -1676,13 +1676,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -1746,13 +1746,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>93</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
@@ -1768,13 +1768,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>97</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>98</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>99</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>100</v>
       </c>
@@ -1806,13 +1806,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>107</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>109</v>
       </c>
@@ -1854,235 +1854,233 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18951F08-4EB9-43BC-9E64-42228F71C1C3}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="3"/>
-    <col min="5" max="5" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="23.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="3"/>
+    <col min="5" max="5" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="4" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2095,102 +2093,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6F304F-FBA0-4E8D-87CD-45711FB43F03}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3"/>
-    <col min="4" max="4" width="7.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="3"/>
+    <col min="4" max="4" width="7.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/德福词汇/徐立华词汇.xlsx
+++ b/德福词汇/徐立华词汇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F37E94-0F8B-48DD-B317-B94094D0739E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1381908-AECF-47DF-B5CC-80019BA5EB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="224">
   <si>
     <t>V.DE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,6 +917,158 @@
   </si>
   <si>
     <t>协调，一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anklagen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ankündigen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anlegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anlocken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annehmen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anpassen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anrechnen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anregen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anschaffen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anschließen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ansprechen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anstecken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anstellen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anstreben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anstrengen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antreiben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anwerben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anzahlen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ankommen auf A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖于，取决于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣告，通告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入，投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，假设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，适应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促进，激励，建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力追求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力，使疲惫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动，促进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付第一笔钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2091,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6F304F-FBA0-4E8D-87CD-45711FB43F03}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2191,6 +2343,158 @@
         <v>183</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/德福词汇/徐立华词汇.xlsx
+++ b/德福词汇/徐立华词汇.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1381908-AECF-47DF-B5CC-80019BA5EB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300134E1-3D09-489D-93CD-FBCDDA9796E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="不常用可分前缀" sheetId="2" r:id="rId2"/>
     <sheet name="ab" sheetId="3" r:id="rId3"/>
     <sheet name="an" sheetId="4" r:id="rId4"/>
+    <sheet name="auf" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="250">
   <si>
     <t>V.DE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1069,6 +1070,110 @@
   </si>
   <si>
     <t>付第一笔钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufbereiten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufberwahren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufbringen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auffallen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auffassen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufführen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufgeben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufgliedern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufhalten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufkommen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufmuntern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引人注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交出，放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻止，停留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收，接受，录音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程的结果和终止</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2245,7 +2350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6F304F-FBA0-4E8D-87CD-45711FB43F03}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -2499,4 +2604,135 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BE7AA-C83F-4679-B33C-E3B146631640}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="3"/>
+    <col min="4" max="4" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/德福词汇/徐立华词汇.xlsx
+++ b/德福词汇/徐立华词汇.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300134E1-3D09-489D-93CD-FBCDDA9796E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7000AFD1-1BFA-49B4-9A49-AD3DD0DEBD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="不常用可分前缀" sheetId="2" r:id="rId2"/>
     <sheet name="ab" sheetId="3" r:id="rId3"/>
-    <sheet name="an" sheetId="4" r:id="rId4"/>
-    <sheet name="auf" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="an" sheetId="4" r:id="rId5"/>
+    <sheet name="auf" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="272">
   <si>
     <t>V.DE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,10 +658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>von D abhänghen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abhalten</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,10 +738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ausstoßen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,10 +798,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取得成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驱除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,10 +810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扣除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接近，挨边</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1174,6 +1159,110 @@
   </si>
   <si>
     <t>过程的结果和终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufräumen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufregen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufrufen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufschließen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufschlüsseln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auftauchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auftragen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufwachen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufwenden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufwiegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufzählen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使激动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭示，开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现，浮出水面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交代任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醒来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花钱，消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡，抵消，补偿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交给，发表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>von D abhängen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切下，取得成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取下，扣除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,14 +2202,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18951F08-4EB9-43BC-9E64-42228F71C1C3}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" style="3"/>
     <col min="5" max="5" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
@@ -2132,7 +2221,7 @@
         <v>118</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>113</v>
@@ -2143,10 +2232,10 @@
         <v>119</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>114</v>
@@ -2154,13 +2243,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>115</v>
@@ -2168,10 +2257,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>116</v>
@@ -2179,10 +2268,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>117</v>
@@ -2190,23 +2279,23 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>116</v>
@@ -2214,26 +2303,26 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2246,39 +2335,39 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>116</v>
@@ -2286,58 +2375,58 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2347,6 +2436,189 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B26EE15-7DB2-40D7-B7B4-A098E1A09DCB}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="3"/>
+    <col min="5" max="5" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6328125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6F304F-FBA0-4E8D-87CD-45711FB43F03}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -2366,238 +2638,238 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2606,17 +2878,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BE7AA-C83F-4679-B33C-E3B146631640}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="3"/>
     <col min="4" max="4" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
@@ -2625,51 +2897,51 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>90</v>
@@ -2677,50 +2949,50 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2728,7 +3000,95 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/德福词汇/徐立华词汇.xlsx
+++ b/德福词汇/徐立华词汇.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7000AFD1-1BFA-49B4-9A49-AD3DD0DEBD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA89984-C35F-4113-9B3E-3DD41C46B463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="nehmen" sheetId="1" r:id="rId1"/>
     <sheet name="不常用可分前缀" sheetId="2" r:id="rId2"/>
     <sheet name="ab" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
-    <sheet name="an" sheetId="4" r:id="rId5"/>
-    <sheet name="auf" sheetId="5" r:id="rId6"/>
+    <sheet name="an" sheetId="4" r:id="rId4"/>
+    <sheet name="auf" sheetId="5" r:id="rId5"/>
+    <sheet name="aus" sheetId="9" r:id="rId6"/>
+    <sheet name="ein" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="389">
   <si>
     <t>V.DE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -738,507 +739,799 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>依赖于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举办，阻止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿下，取走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过，过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放下，脱下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替，偿还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束，完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权衡，斟酌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接近，挨边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作认真和迫切性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anbauen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sich etwas aneignen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anerkennen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anfallen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anfordern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anfragen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angeben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angleichen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angreifen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植，扩建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握，学会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承认，认可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击，袭击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐渐接近，使适应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ablenken von D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调，一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anklagen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ankündigen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anlegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anlocken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annehmen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anpassen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anrechnen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anregen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anschaffen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anschließen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ansprechen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anstecken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anstellen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anstreben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anstrengen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antreiben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anwerben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anzahlen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ankommen auf A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖于，取决于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣告，通告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入，投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，假设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，适应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促进，激励，建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力追求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力，使疲惫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动，促进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付第一笔钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufbereiten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufberwahren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufbringen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auffallen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auffassen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufführen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufgeben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufgliedern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufhalten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufkommen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufmuntern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引人注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交出，放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻止，停留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收，接受，录音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程的结果和终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufräumen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufregen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufrufen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufschließen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufschlüsseln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auftauchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auftragen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufwachen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufwenden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufwiegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aufzählen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使激动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭示，开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现，浮出水面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交代任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醒来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花钱，消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡，抵消，补偿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交给，发表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>von D abhängen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切下，取得成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取下，扣除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstellen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索，叫走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausbauen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausbeuten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausbilden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausbleiben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausbrechen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausdehnen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausdrücken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sich mit D auseinandersetzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausfallen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausführen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausfüllen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausgeben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausgleichen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aushalten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aushandeln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sich mit D auskennen </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auslesen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auslösen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausmachen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausnehmen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausnutzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausreichen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausscheiden aus D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausschließen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aussehen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausstatten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausstellen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ausstoßen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依赖于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auf A angeweisen sein</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举办，阻止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿下，取走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过，过期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放下，脱下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代替，偿还</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索，查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束，完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权衡，斟酌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接近，挨边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作认真和迫切性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anbauen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sich etwas aneignen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anerkennen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anfallen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anfordern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anfragen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angeben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angleichen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angreifen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植，扩建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌握，学会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承认，认可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击，袭击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>询问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逐渐接近，使适应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ablenken von D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协调，一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anklagen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ankündigen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anlegen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anlocken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>annehmen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anpassen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anrechnen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anregen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anschaffen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anschließen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ansprechen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anstecken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anstellen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anstreben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anstrengen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>antreiben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anwerben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anzahlen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ankommen auf A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖于，取决于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宣告，通告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投入，投放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，假设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，适应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>促进，激励，建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攀谈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感染上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇佣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>努力追求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>努力，使疲惫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动，促进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付第一笔钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufbereiten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufberwahren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufbringen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auffallen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auffassen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufführen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufgeben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufgliedern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufhalten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufkommen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufmuntern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筹集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引人注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上演</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交出，放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻止，停留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼓舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸收，接受，录音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突然发生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过程的结果和终止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufräumen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufregen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufrufen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufschließen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufschlüsseln</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auftauchen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auftragen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufwachen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufwenden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufwiegen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aufzählen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使激动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼吁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>揭示，开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现，浮出水面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交代任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>醒来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花钱，消费</t>
+    <t>ausstrahlen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausüben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausverkaufen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auswandern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausweisen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auswiegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sich auf A auswirken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auszeichnen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstoßen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞开，排斥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩建，种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥削</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费，支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表彰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展，延申，膨胀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消，终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行，详细说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausführlich</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1246,23 +1539,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交给，发表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>von D abhängen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切下，取得成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取下，扣除</t>
+    <t>auskommen mit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和睦相处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充分利用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排泄，剔出，离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除在外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schließlich+G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adv </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅，只是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈列，签发证件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移居国外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einarbeiten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einbeziehen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einbilden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einbüßen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eindämmen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einfallen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einführen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eingeben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eingliedern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eingreifen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einhalten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sich einlassen auf A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sich einleben in A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sich einpendeln auf A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sich an A halten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einprägen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auswendig lernen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behalten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sich A merken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einrichten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einschätzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beurteilen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einschließen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umfassen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einschmuggeln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einschreiben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einsetzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eistellen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eintragen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eintreffen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ankommen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einwenden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gegenposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vorwurf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kritik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einwilligen in A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1270,7 +1767,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1312,6 +1809,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1335,7 +1839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,6 +1857,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1671,7 +2178,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2200,233 +2707,1411 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18951F08-4EB9-43BC-9E64-42228F71C1C3}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="3"/>
+    <col min="2" max="2" width="23.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" style="3"/>
+    <col min="6" max="6" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6328125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C25">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6F304F-FBA0-4E8D-87CD-45711FB43F03}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6328125" style="3"/>
+    <col min="2" max="2" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" style="3"/>
-    <col min="5" max="5" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6328125" style="3"/>
+    <col min="5" max="5" width="7.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6328125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F28">
+    <sortCondition descending="1" ref="A10"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BE7AA-C83F-4679-B33C-E3B146631640}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>139</v>
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>140</v>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>142</v>
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>143</v>
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>117</v>
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>145</v>
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>146</v>
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>116</v>
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>147</v>
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>148</v>
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>149</v>
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>150</v>
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>151</v>
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>152</v>
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>271</v>
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C23">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0FDFBE-9226-4B02-BC9A-6623ED415C63}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="36.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="3"/>
+    <col min="7" max="7" width="11.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2435,660 +4120,187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B26EE15-7DB2-40D7-B7B4-A098E1A09DCB}">
-  <dimension ref="A1:E24"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF7B7D4-3A72-4FF9-9D13-4441C9A30C8A}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="3"/>
-    <col min="5" max="5" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6328125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6F304F-FBA0-4E8D-87CD-45711FB43F03}">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="3"/>
-    <col min="4" max="4" width="7.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6328125" style="3"/>
+    <col min="1" max="1" width="26.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>175</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>176</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>177</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>178</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>179</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>363</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>203</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>204</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>206</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BE7AA-C83F-4679-B33C-E3B146631640}">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="3"/>
-    <col min="4" max="4" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>267</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
